--- a/data/raw/2024-02-28_ksf-oyster-cylinder-growth.xlsx
+++ b/data/raw/2024-02-28_ksf-oyster-cylinder-growth.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lysbethkoster/Documents/Universiteit/University of Hawai'i/MSc Thesis/Thesis/RQ2/nomilo-fishpond-analysis/data/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4p0nc\OneDrive - hawaii.edu\Desktop\nomilo-fishpond-analysis\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AE4567C-7FE9-314F-A26C-EDC56A541564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD37330-02AE-42C4-BF2C-464698972518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2200" windowWidth="23260" windowHeight="12460" xr2:uid="{CDA2A755-8867-47B2-8B5A-426C7245DD84}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{CDA2A755-8867-47B2-8B5A-426C7245DD84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -225,9 +225,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -265,7 +265,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -371,7 +371,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -513,7 +513,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -523,25 +523,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC11A0C9-2957-439A-AE82-0076F5804608}">
   <dimension ref="A1:R45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.5" style="8" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" style="8" customWidth="1"/>
-    <col min="6" max="7" width="8.83203125" style="8"/>
-    <col min="8" max="8" width="9.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" style="7" customWidth="1"/>
-    <col min="10" max="11" width="8.83203125" style="8"/>
-    <col min="12" max="12" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.1640625" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.453125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" style="8" customWidth="1"/>
+    <col min="6" max="7" width="8.81640625" style="8"/>
+    <col min="8" max="8" width="9.1796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1796875" style="7" customWidth="1"/>
+    <col min="10" max="11" width="8.81640625" style="8"/>
+    <col min="12" max="12" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -569,7 +569,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="9"/>
       <c r="B2" s="1" t="s">
         <v>9</v>
@@ -614,7 +614,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>45078</v>
       </c>
@@ -643,7 +643,7 @@
         <v>2023</v>
       </c>
       <c r="N3" s="4">
-        <f t="shared" ref="N3:N32" si="0">WEEKNUM(A3)</f>
+        <f t="shared" ref="N3:N33" si="0">WEEKNUM(A3)</f>
         <v>22</v>
       </c>
       <c r="P3">
@@ -656,7 +656,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>45087</v>
       </c>
@@ -696,7 +696,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>45096</v>
       </c>
@@ -736,7 +736,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>45100</v>
       </c>
@@ -776,7 +776,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>45108</v>
       </c>
@@ -821,7 +821,7 @@
         <v>5.654457513157892</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>45114</v>
       </c>
@@ -861,7 +861,7 @@
         <v>5.5715919761904757</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>45120</v>
       </c>
@@ -901,7 +901,7 @@
         <v>5.0697937857142854</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>45127</v>
       </c>
@@ -941,7 +941,7 @@
         <v>3.55461786861314</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>45133</v>
       </c>
@@ -981,7 +981,7 @@
         <v>3.5358852857142851</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>45140</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>3.6464586229508202</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>45146</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>0.74994247307692308</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>45163</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>1.5716935097767848</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>45194</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>2.5729754851190472</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>45211</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>3.401928181547619</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>45222</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>4.6889159910714255</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>45236</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>2.9254281160714277</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>45239</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>2.1152617886904759</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>45250</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>1.2516819177083329</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>45257</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>1.2013228905654765</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>45268</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>4.0890574453869055</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>45271</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>7.8536540797619052</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>45278</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>6.5248396556547599</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>45288</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>4.1256212321428603</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>45292</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>2.7461928867559533</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>45296</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>1.8935640029761931</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>45299</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>1.704314074553573</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>45303</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>0.59116542142857254</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>45308</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>1.102050497573221</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>45314</v>
       </c>
@@ -1794,9 +1794,9 @@
         <v>1.5433366433035713</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
-        <v>45336</v>
+        <v>45342</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1807,7 +1807,9 @@
       <c r="H32" s="1">
         <v>1080</v>
       </c>
-      <c r="I32" s="6"/>
+      <c r="I32" s="6">
+        <v>0.09</v>
+      </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="4" t="e">
@@ -1819,7 +1821,7 @@
       </c>
       <c r="N32" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P32">
         <v>51</v>
@@ -1831,7 +1833,7 @@
         <v>1.446222726380368</v>
       </c>
     </row>
-    <row r="33" spans="16:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P33">
         <v>52</v>
       </c>
@@ -1842,7 +1844,7 @@
         <v>2.1080875220238102</v>
       </c>
     </row>
-    <row r="34" spans="16:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P34">
         <v>1</v>
       </c>
@@ -1853,7 +1855,7 @@
         <v>2.6269799947916668</v>
       </c>
     </row>
-    <row r="35" spans="16:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P35">
         <v>2</v>
       </c>
@@ -1864,7 +1866,7 @@
         <v>2.6027391651785741</v>
       </c>
     </row>
-    <row r="36" spans="16:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P36">
         <v>3</v>
       </c>
@@ -1875,7 +1877,7 @@
         <v>2.9111403973214314</v>
       </c>
     </row>
-    <row r="37" spans="16:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P37">
         <v>4</v>
       </c>
@@ -1886,42 +1888,42 @@
         <v>1.6261581206489677</v>
       </c>
     </row>
-    <row r="38" spans="16:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="16:18" x14ac:dyDescent="0.35">
       <c r="R38" t="e">
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="16:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="16:18" x14ac:dyDescent="0.35">
       <c r="R39" t="e">
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="16:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="16:18" x14ac:dyDescent="0.35">
       <c r="R40" t="e">
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="16:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="16:18" x14ac:dyDescent="0.35">
       <c r="R41" t="e">
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="16:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="16:18" x14ac:dyDescent="0.35">
       <c r="R42" t="e">
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="16:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="16:18" x14ac:dyDescent="0.35">
       <c r="R43" t="e">
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="16:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="16:18" x14ac:dyDescent="0.35">
       <c r="R44" t="e">
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="16:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="16:18" x14ac:dyDescent="0.35">
       <c r="R45" t="e">
         <v>#DIV/0!</v>
       </c>
